--- a/mc/PPO/TWF.FIMTX HOT  _PPO Back-Testing Strategy Performance Report.xlsx
+++ b/mc/PPO/TWF.FIMTX HOT  _PPO Back-Testing Strategy Performance Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\A-Deep-RL-Framework-for-Index-futures-Trading\mc\PPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A02AD24-2F6D-4A80-B8DA-356F566F0235}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6514E75C-E99A-42FB-9FA6-596F610A35C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="12540" xr2:uid="{DAA21052-E7E4-4486-B95B-DDB2C08EE107}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25890" windowHeight="12540" xr2:uid="{66BCC307-F61B-4293-AA96-CBC161B2E51F}"/>
   </bookViews>
   <sheets>
     <sheet name="Strategy Analysis" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="169">
   <si>
     <t>Strategy Performance Summary</t>
   </si>
@@ -199,13 +199,13 @@
     <t>Trading Period</t>
   </si>
   <si>
-    <t>11 Yrs, 1 Mth, 12 Dys</t>
+    <t>11 Yrs, 4 Mths, 19 Dys</t>
   </si>
   <si>
     <t>Time in the Market</t>
   </si>
   <si>
-    <t>8 Yrs, 4 Mths, 16 Dys</t>
+    <t>8 Yrs, 6 Mths, 21 Dys</t>
   </si>
   <si>
     <t>Percent in the Market</t>
@@ -214,7 +214,7 @@
     <t>Longest flat period</t>
   </si>
   <si>
-    <t>16 Dys</t>
+    <t>22 Dys</t>
   </si>
   <si>
     <t>Max Run-up Date</t>
@@ -658,7 +658,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95F6A77-5752-4FBA-B614-8745285DF511}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B604B6DA-C0EE-48A4-8E24-A581C148D55A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -702,7 +702,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB43302-A011-4AFB-A177-6B4C0D9B4C46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A333CEB-C1E5-414C-AC63-F98DB117F4E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -746,7 +746,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC747911-9887-46B3-9EC3-26521CB1E174}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D175536-7314-466D-BED0-ABAAE9F2A0B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -790,7 +790,7 @@
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F09492-9A0E-49DF-ACDA-5BA413287FCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9F774A-B385-4D80-B258-76C892770E13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -834,7 +834,7 @@
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B95ACA8-04D9-49B1-8873-4ADCEAAB5DBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{890AB7BE-79CC-4667-AF1D-003AD1D78F0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,7 +878,7 @@
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0DE8F81-0590-4B50-BB45-D6C738C9F111}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8263D540-391D-4C1F-85B7-BD9DE32B41BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -922,7 +922,7 @@
         <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC72904-CC7B-43CF-9055-3B891DE42E97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037D92A6-41F5-45A4-9FC4-824A61C0D892}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -966,7 +966,7 @@
         <xdr:cNvPr id="9" name="圖片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B50B08-C691-4A32-88CC-2087149DAF39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD847E4-2865-47C1-8679-4C745A223E82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,7 +1010,7 @@
         <xdr:cNvPr id="10" name="圖片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A11D3D-F0F4-46A7-94CC-F8AAEE4DB1A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F976D17-A5B0-41AF-9F6A-1B1D57DA5043}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1054,7 +1054,7 @@
         <xdr:cNvPr id="11" name="圖片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D10869-D46A-49A6-9E04-DFDC6771876F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640A4402-FBF2-458C-A6B9-30D4B64919FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1103,7 +1103,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE18E9B-34A3-4281-8962-27F0C6DC5F9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3ADD5AB-7A81-403D-9DF8-DB16D1EFB172}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1147,7 +1147,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0698D526-5AE4-459D-AB9F-474E1AA5AFA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C50EF474-20E1-471D-BD79-655DEAA4CFBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,7 +1191,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A727F1CD-40E3-4FF0-B6DE-E6DC9CF03228}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAB5628-D8AB-4F71-BD31-8ED9960DA91E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1235,7 @@
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B82663E-EE31-41B2-8B62-898E6D3D9137}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFF000C-86ED-496B-958A-0EAC50235290}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1279,7 @@
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB45AD7-32D6-47D2-85D0-3BB4B223C83F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{350D53B8-B592-4054-A7C3-6ADA4487D4D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1323,7 @@
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{852B4ACE-ECCA-49EE-B516-F75EF156B149}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3099019C-FDD1-4D0E-AC11-009EAA43DBEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1367,7 +1367,7 @@
         <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B29550-EF33-453B-801A-B998AAD160BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5165B363-DE8C-4DBC-A73C-77137D74D09B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,7 +1411,7 @@
         <xdr:cNvPr id="9" name="圖片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AA40E8C-5888-423F-A8CE-7B81B14D2CC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EBD9D6B-73B1-44DF-8901-61C611FE9986}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
         <xdr:cNvPr id="10" name="圖片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EAC227A-D261-4C44-B01D-725DC3B7978F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D845EF22-4B3D-4D70-912A-E84B4761EDFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
         <xdr:cNvPr id="11" name="圖片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D67009-398C-441E-9F45-5F79033FEC8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26EEA1F-2453-4186-B4D7-9939B97C7063}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1543,7 @@
         <xdr:cNvPr id="12" name="圖片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F36A9695-ED32-4D05-AAFD-055CD253BA69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD0E5C9-15AE-4ABD-AFB6-1E87AC4F5B4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1592,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B704D59-192A-468F-8C8E-77DDED3AFC54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F790E59-2DF0-43D4-9CA7-A2B863C63619}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1636,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A64307-0C05-4836-88C1-59EA79AFC51F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57C88319-1E3D-44BA-971A-43E78314B710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1680,7 +1680,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA2CF94-B97C-493B-B002-FA5E61D3B7F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C4599A-B8E2-47B6-A56C-0DC8C952D02C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1724,7 @@
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF666EA4-F87D-4189-AB62-F0D8BD34BA15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37585981-97F8-4E3D-9427-48DA2F48B5AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1768,7 @@
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDD55B2-EDA9-4407-A519-813D61225DF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9EDD8C-55C7-469A-9501-3E6148575D89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1812,7 +1812,7 @@
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67CCD8F8-2101-4709-8B01-7E84F4521099}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE41EF82-177B-469B-B14A-52C48B5CF75D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1856,7 @@
         <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0BFC4D-5AE8-4DB3-89D7-EE7EBE535E38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46525AD2-9A6D-4EE2-A982-8AC78ADEA607}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1900,7 +1900,7 @@
         <xdr:cNvPr id="9" name="圖片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41464742-A61B-448A-8FA0-FAB98C579020}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02FD2CB-EDB6-4ABD-9224-3CBE34B057FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1944,7 @@
         <xdr:cNvPr id="10" name="圖片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47547916-4802-464F-B436-4EC1202368BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCBB180D-EB34-40B8-96FE-772445D81572}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,7 +1988,7 @@
         <xdr:cNvPr id="11" name="圖片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B766081-6DB4-49F6-A3A9-A4A1AB419654}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF87D29F-43F5-4872-B2D8-D260134A4D89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2032,7 @@
         <xdr:cNvPr id="12" name="圖片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE0FD42C-F721-4FF2-B22D-52B160CCE8C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E27ECB79-F170-4121-A064-05206EAE499B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2076,7 @@
         <xdr:cNvPr id="13" name="圖片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF584FDE-C1B9-4B52-9F78-829310B7EA0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD3CFAF-67A7-4330-B307-9B4DF2DFA6AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2120,7 @@
         <xdr:cNvPr id="14" name="圖片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE0EACA-3FAF-4455-9183-58C88BAB9ADF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73DC3A6A-59A7-4E65-A439-69485280E6F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,7 +2164,7 @@
         <xdr:cNvPr id="15" name="圖片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C6A162-169F-4F15-AD31-026B1894EDC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C6D2B3-07DC-4A7A-9599-AAE345C3E103}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2208,7 @@
         <xdr:cNvPr id="16" name="圖片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC3236E-BDB0-4E1A-A19B-A6151D84E4CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF2DEA0-E9BB-4E17-A1C2-F24DDD76B160}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2252,7 @@
         <xdr:cNvPr id="17" name="圖片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4CD381A-04D1-4EF2-98B7-CBBB8709DC1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B870D5C1-880B-4371-A3F2-CF7AAD900717}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5E96FD-93F7-49F8-A209-59A91AE322C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3159D5F-AF6B-4F85-A5C9-94C120DE7804}">
   <dimension ref="A1:D538"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2609,10 +2609,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>3178400</v>
+        <v>3690800</v>
       </c>
       <c r="C4" s="3">
-        <v>3178400</v>
+        <v>3690800</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -2623,10 +2623,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>6323200</v>
+        <v>6871000</v>
       </c>
       <c r="C5" s="3">
-        <v>6323200</v>
+        <v>6871000</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -2637,10 +2637,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>-3144800</v>
+        <v>-3180200</v>
       </c>
       <c r="C6" s="3">
-        <v>-3144800</v>
+        <v>-3180200</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -2651,10 +2651,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>2220818.8794350717</v>
+        <v>2686883.5161027592</v>
       </c>
       <c r="C7" s="3">
-        <v>2220818.8794350717</v>
+        <v>2686883.5161027592</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
@@ -2665,10 +2665,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>5697109.9056249894</v>
+        <v>6200459.0598770631</v>
       </c>
       <c r="C8" s="3">
-        <v>5697109.9056249894</v>
+        <v>6200459.0598770631</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
@@ -2679,10 +2679,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="3">
-        <v>-3476291.0261899177</v>
+        <v>-3513575.5437743044</v>
       </c>
       <c r="C9" s="3">
-        <v>-3476291.0261899177</v>
+        <v>-3513575.5437743044</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
@@ -2693,10 +2693,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>2067000</v>
+        <v>2598000</v>
       </c>
       <c r="C10" s="3">
-        <v>2067000</v>
+        <v>2598000</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -2707,10 +2707,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>4385600</v>
+        <v>4952000</v>
       </c>
       <c r="C11" s="3">
-        <v>4385600</v>
+        <v>4952000</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -2721,10 +2721,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="3">
-        <v>-2318600</v>
+        <v>-2354000</v>
       </c>
       <c r="C12" s="3">
-        <v>-2318600</v>
+        <v>-2354000</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
@@ -2749,10 +2749,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="4">
-        <v>11.616959064327485</v>
+        <v>13.489766081871345</v>
       </c>
       <c r="C14" s="4">
-        <v>11.616959064327485</v>
+        <v>13.489766081871345</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>5</v>
@@ -2763,10 +2763,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>3.1783999999999999</v>
+        <v>3.6907999999999999</v>
       </c>
       <c r="C15" s="4">
-        <v>3.1783999999999999</v>
+        <v>3.6907999999999999</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>5</v>
@@ -2833,10 +2833,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>7.528185693983894</v>
+        <v>8.7418285172903829</v>
       </c>
       <c r="C20">
-        <v>7.528185693983894</v>
+        <v>8.7418285172903829</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -2847,10 +2847,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>2.0106843042482829</v>
+        <v>2.160555939877995</v>
       </c>
       <c r="C21">
-        <v>2.0106843042482829</v>
+        <v>2.160555939877995</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -2861,10 +2861,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1.6388472261682683</v>
+        <v>1.7647148844895739</v>
       </c>
       <c r="C22">
-        <v>1.6388472261682683</v>
+        <v>1.7647148844895739</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -2875,10 +2875,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>1.8914862416975762</v>
+        <v>2.1036533559898047</v>
       </c>
       <c r="C23">
-        <v>1.8914862416975762</v>
+        <v>2.1036533559898047</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -2917,10 +2917,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="3">
-        <v>192500</v>
+        <v>196000</v>
       </c>
       <c r="C26" s="3">
-        <v>192500</v>
+        <v>196000</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>5</v>
@@ -2930,11 +2930,11 @@
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3">
-        <v>-36300</v>
-      </c>
-      <c r="C27" s="3">
-        <v>-36300</v>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>5</v>
@@ -2945,10 +2945,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>0.28678621541501975</v>
+        <v>0.32522670687575395</v>
       </c>
       <c r="C28" s="4">
-        <v>0.28678621541501975</v>
+        <v>0.32522670687575395</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>5</v>
@@ -2959,10 +2959,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>2.3898851284584979E-2</v>
+        <v>2.7102225572979498E-2</v>
       </c>
       <c r="C29" s="4">
-        <v>2.3898851284584979E-2</v>
+        <v>2.7102225572979498E-2</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>5</v>
@@ -2973,10 +2973,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="3">
-        <v>1199863.9455782312</v>
+        <v>1359863.9455782312</v>
       </c>
       <c r="C30" s="3">
-        <v>1199863.9455782312</v>
+        <v>1359863.9455782312</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>5</v>
@@ -2987,13 +2987,13 @@
         <v>32</v>
       </c>
       <c r="B31" s="3">
-        <v>23448.507462686568</v>
+        <v>26940.145985401461</v>
       </c>
       <c r="C31" s="3">
-        <v>23448.507462686568</v>
+        <v>26940.145985401461</v>
       </c>
       <c r="D31" s="3">
-        <v>23448.507462686568</v>
+        <v>26940.145985401461</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3001,13 +3001,13 @@
         <v>33</v>
       </c>
       <c r="B32" s="3">
-        <v>70117.384644141785</v>
+        <v>73285.9402492308</v>
       </c>
       <c r="C32" s="3">
-        <v>70117.384644141785</v>
+        <v>73285.9402492308</v>
       </c>
       <c r="D32" s="3">
-        <v>70117.384644141785</v>
+        <v>73285.9402492308</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3015,10 +3015,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C33">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3029,10 +3029,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>0.53125</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C34" s="4">
-        <v>0.53125</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>43.480451437946982</v>
+        <v>45.549184119648352</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,7 +3056,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.25926931856523472</v>
+        <v>0.2783674182451184</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3064,7 +3064,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.89813526519749465</v>
+        <v>0.9642930231446416</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3072,7 +3072,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.4217343494467849</v>
+        <v>0.45132961962920765</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3080,7 +3080,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>9.7646429029371404E-3</v>
+        <v>1.0443779377835419E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,7 +3104,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>97.03763632534266</v>
+        <v>119.75640735401002</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3112,7 +3112,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>22.226573426573427</v>
+        <v>25.809790209790211</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>17.320980926430519</v>
+        <v>20.113351498637602</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3128,7 +3128,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>7.528185693983894</v>
+        <v>8.7418285172903829</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +3136,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>14.454545454545455</v>
+        <v>18.167832167832167</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3144,7 +3144,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>11.264305177111716</v>
+        <v>14.158038147138965</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3152,7 +3152,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>4.8957839886309804</v>
+        <v>6.1534817621980107</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3160,7 +3160,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>15.53020195409141</v>
+        <v>18.789395217501813</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>12.102555201281044</v>
+        <v>14.642416981486427</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,7 +3176,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>5.2601110360849637</v>
+        <v>6.3640064332135466</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="4">
-        <v>0.75345849802371545</v>
+        <v>0.75150784077201449</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3307,7 +3307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68484014-69F8-43E8-85C6-A6371DAF27C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A84327-8BB2-484F-B6B3-76E48EA2ABEB}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3330,7 +3330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01190CE0-5392-47EA-A81D-8C4640E345E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DE4B75-955E-45CC-9DC3-48BAC52F5C24}">
   <dimension ref="A1:D596"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3362,10 +3362,10 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C4">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3376,10 +3376,10 @@
         <v>77</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>78</v>
       </c>
       <c r="B6">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C6">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3404,10 +3404,10 @@
         <v>79</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3418,10 +3418,10 @@
         <v>35</v>
       </c>
       <c r="B8" s="4">
-        <v>0.53125</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C8" s="4">
-        <v>0.53125</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>80</v>
       </c>
       <c r="B9" s="3">
-        <v>16554.166666666664</v>
+        <v>18830.612244897959</v>
       </c>
       <c r="C9" s="3">
-        <v>16554.166666666664</v>
+        <v>18830.612244897959</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
@@ -3446,10 +3446,10 @@
         <v>81</v>
       </c>
       <c r="B10" s="3">
-        <v>61992.156862745091</v>
+        <v>65438.095238095244</v>
       </c>
       <c r="C10" s="3">
-        <v>61992.156862745091</v>
+        <v>65438.095238095244</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -3460,10 +3460,10 @@
         <v>82</v>
       </c>
       <c r="B11" s="3">
-        <v>-34942.222222222219</v>
+        <v>-34947.252747252751</v>
       </c>
       <c r="C11" s="3">
-        <v>-34942.222222222219</v>
+        <v>-34947.252747252751</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -3474,10 +3474,10 @@
         <v>83</v>
       </c>
       <c r="B12">
-        <v>1.7741332096308378</v>
+        <v>1.8724818145609292</v>
       </c>
       <c r="C12">
-        <v>1.7741332096308378</v>
+        <v>1.8724818145609292</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -3544,10 +3544,10 @@
         <v>88</v>
       </c>
       <c r="B17">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C17">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -3572,10 +3572,10 @@
         <v>90</v>
       </c>
       <c r="B19">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="C19">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -3586,10 +3586,10 @@
         <v>91</v>
       </c>
       <c r="B20">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="C20">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -3616,13 +3616,13 @@
         <v>96</v>
       </c>
       <c r="B26" s="3">
-        <v>64614.335395242873</v>
+        <v>67757.624467430869</v>
       </c>
       <c r="C26" s="3">
-        <v>54003.460993368557</v>
+        <v>58043.816971704131</v>
       </c>
       <c r="D26" s="3">
-        <v>24543.989299553145</v>
+        <v>24407.300094936716</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3630,13 +3630,13 @@
         <v>97</v>
       </c>
       <c r="B27" s="3">
-        <v>81168.50206190953</v>
+        <v>86588.236712328828</v>
       </c>
       <c r="C27" s="3">
-        <v>115995.61785611365</v>
+        <v>123481.91220979938</v>
       </c>
       <c r="D27" s="3">
-        <v>-10398.232922669078</v>
+        <v>-10539.952652316031</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3644,13 +3644,13 @@
         <v>98</v>
       </c>
       <c r="B28" s="3">
-        <v>-48060.168728576209</v>
+        <v>-48927.012222532911</v>
       </c>
       <c r="C28" s="3">
-        <v>7988.6958693765337</v>
+        <v>7394.2782663911094</v>
       </c>
       <c r="D28" s="3">
-        <v>-59486.21152177536</v>
+        <v>-59354.552842189471</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3658,10 +3658,10 @@
         <v>99</v>
       </c>
       <c r="B29">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29">
         <v>10</v>
@@ -3672,10 +3672,10 @@
         <v>100</v>
       </c>
       <c r="B30" s="3">
-        <v>1111400</v>
+        <v>1092800</v>
       </c>
       <c r="C30" s="3">
-        <v>1937600</v>
+        <v>1919000</v>
       </c>
       <c r="D30" s="3">
         <v>-826200</v>
@@ -3721,10 +3721,10 @@
         <v>106</v>
       </c>
       <c r="B38" s="3">
-        <v>52837.305699481862</v>
+        <v>55204.591836734697</v>
       </c>
       <c r="C38" s="3">
-        <v>-28270.984455958551</v>
+        <v>-28867.34693877551</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3754,10 +3754,10 @@
         <v>109</v>
       </c>
       <c r="B41" s="4">
-        <v>2.8677940531794649E-2</v>
+        <v>2.9229146837274154E-2</v>
       </c>
       <c r="C41" s="4">
-        <v>-1.4930516628264215E-2</v>
+        <v>-1.5026039661224918E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3765,10 +3765,10 @@
         <v>110</v>
       </c>
       <c r="B42" s="3">
-        <v>51627.889921077891</v>
+        <v>55139.079438915272</v>
       </c>
       <c r="C42" s="3">
-        <v>27507.445726202302</v>
+        <v>28094.955384434677</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3776,10 +3776,10 @@
         <v>97</v>
       </c>
       <c r="B43" s="3">
-        <v>104465.19562055975</v>
+        <v>110343.67127564996</v>
       </c>
       <c r="C43" s="3">
-        <v>-763.53872975624881</v>
+        <v>-772.39155434083386</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3787,10 +3787,10 @@
         <v>98</v>
       </c>
       <c r="B44" s="3">
-        <v>1209.415778403968</v>
+        <v>65.51239781942968</v>
       </c>
       <c r="C44" s="3">
-        <v>-55778.430182160853</v>
+        <v>-56962.302323210191</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3803,7 +3803,7 @@
         <v>112</v>
       </c>
       <c r="B49">
-        <v>0.41770133405217302</v>
+        <v>0.43188945044921673</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3811,7 +3811,7 @@
         <v>113</v>
       </c>
       <c r="B50">
-        <v>0.32383490511012503</v>
+        <v>0.33417864585526313</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3819,7 +3819,7 @@
         <v>114</v>
       </c>
       <c r="B51" s="3">
-        <v>16554.166666666664</v>
+        <v>18830.612244897959</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3922,13 +3922,13 @@
         <v>3</v>
       </c>
       <c r="B65" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" s="3">
-        <v>49866.666666666672</v>
+        <v>66458.333333333343</v>
       </c>
       <c r="D65" s="3">
-        <v>-39714.285714285717</v>
+        <v>-34750</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3942,7 +3942,7 @@
         <v>89637.5</v>
       </c>
       <c r="D66" s="3">
-        <v>-19800</v>
+        <v>-28650</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3978,13 +3978,13 @@
         <v>1</v>
       </c>
       <c r="B69" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C69" s="3">
-        <v>-44721.739130434784</v>
+        <v>-44333.333333333328</v>
       </c>
       <c r="D69" s="3">
-        <v>51956.52173913044</v>
+        <v>59858.333333333336</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4106,7 +4106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87156B5F-85CF-450B-A91D-7523259F235F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446DE5D6-63EF-4285-8ABA-5360AE1B6917}">
   <dimension ref="A1:G838"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4242,22 +4242,22 @@
         <v>2021</v>
       </c>
       <c r="B40" s="3">
-        <v>254600</v>
+        <v>803300</v>
       </c>
       <c r="C40" s="4">
-        <v>6.5491961414790995E-2</v>
+        <v>0.20663665594855304</v>
       </c>
       <c r="D40" s="3">
-        <v>290900</v>
+        <v>838700</v>
       </c>
       <c r="E40" s="3">
-        <v>-36300</v>
+        <v>-35400</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G40" s="4">
-        <v>0.66666666666700003</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4611,7 +4611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EF27BC-339B-4D9C-8591-0159C5FD5D97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B5F9C9-0B38-4E72-8B05-841FE57BAD31}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
